--- a/BDA/ff_fleaflicker_data.xlsx
+++ b/BDA/ff_fleaflicker_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="0" windowWidth="15780" windowHeight="13060" tabRatio="500"/>
+    <workbookView xWindow="660" yWindow="0" windowWidth="25860" windowHeight="13040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>finkle is e.. 115.16 LeDong 113.79 Moodmen 105.05 Jim's Porn .. 102.3 Bindy 100.84 charles 98.53 The Search .. 97.8 Willghazi 95.25 Silent Kill.. 85.06 Rope "Sesh" 84.26 Men from Gr.. 81.66 Magical Jes.. 79.29 The Hot Tub 77.31 The Walking.. 60.22</t>
   </si>
   <si>
-    <t>Bindy 127.07 Men from Gr.. 107.33 charles 100.68 The Walking.. 98.02 Rope "Sesh" 95.12 Jim's Porn .. 93.95 LeDong 83.21 Moodmen 80.52 Willghazi 78.33 The Search .. 76.73 finkle is e.. 76.04 Magical Jes.. 66.91 The Hot Tub 64.69 Silent Kill.. 46.74 Remove ad Tue 11/17-Mon 11/23Week 11 2015</t>
-  </si>
-  <si>
     <t>Bindy 152.51 The Hot Tub 121.91 Jim's Porn .. 121.16 Magical Jes.. 119.98 LeDong 116.84 Men from Gr.. 104.68 The Walking.. 104.64 Rope "Sesh" 100.31 finkle is e.. 89.89 charles 87.49 Willghazi 83.08 The Search .. 76.72 Silent Kill.. 60.81 Moodmen 56.4</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>Moodmen 120.36 Rope "Sesh" 119.3 Bindy 113.14 The Hot Tub 107.5 The Search .. 100.07 finkle is e.. 99.83 Men from Gr.. 98.12 Magical Jes.. 96.47 Silent Kill.. 91.16 Jim's Porn .. 90.29 LeDong 88.28 charles 85.97 Willghazi 81.51 The Walking.. 67.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bindy 127.07 Men from Gr.. 107.33 charles 100.68 The Walking.. 98.02 Rope "Sesh" 95.12 Jim's Porn .. 93.95 LeDong 83.21 Moodmen 80.52 Willghazi 78.33 The Search .. 76.73 finkle is e.. 76.04 Magical Jes.. 66.91 The Hot Tub 64.69 Silent Kill.. 46.74 </t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -489,22 +489,22 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
